--- a/ecosoft/import_expense_report/ExpenseReport.xlsx
+++ b/ecosoft/import_expense_report/ExpenseReport.xlsx
@@ -1088,10 +1088,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I1048576"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1103,7 +1103,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="8" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="12" style="1" width="14.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -1276,6 +1278,10 @@
       <c r="G16" s="34"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
+      <c r="K16" s="1" t="n">
+        <f aca="false">$C$10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="22"/>
@@ -1287,6 +1293,10 @@
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
+      <c r="K17" s="1" t="n">
+        <f aca="false">$C$10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="22"/>
@@ -1298,6 +1308,10 @@
       <c r="G18" s="34"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
+      <c r="K18" s="1" t="n">
+        <f aca="false">$C$10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="36"/>
@@ -1309,6 +1323,10 @@
       <c r="G19" s="34"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
+      <c r="K19" s="1" t="n">
+        <f aca="false">$C$10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="37"/>
@@ -1320,6 +1338,10 @@
       <c r="G20" s="34"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
+      <c r="K20" s="1" t="n">
+        <f aca="false">$C$10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="19"/>
@@ -1331,6 +1353,10 @@
       <c r="G21" s="34"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
+      <c r="K21" s="1" t="n">
+        <f aca="false">$C$10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="19"/>
@@ -1342,6 +1368,10 @@
       <c r="G22" s="34"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
+      <c r="K22" s="1" t="n">
+        <f aca="false">$C$10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="19"/>
@@ -1353,6 +1383,10 @@
       <c r="G23" s="34"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
+      <c r="K23" s="1" t="n">
+        <f aca="false">$C$10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="19"/>
@@ -1364,6 +1398,10 @@
       <c r="G24" s="34"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
+      <c r="K24" s="1" t="n">
+        <f aca="false">$C$10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="19"/>
@@ -1375,6 +1413,10 @@
       <c r="G25" s="34"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
+      <c r="K25" s="1" t="n">
+        <f aca="false">$C$10</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="38"/>

--- a/ecosoft/import_expense_report/ExpenseReport.xlsx
+++ b/ecosoft/import_expense_report/ExpenseReport.xlsx
@@ -113,7 +113,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.00;\(#,##0.00\)"/>
     <numFmt numFmtId="169" formatCode="D\/M"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -234,6 +234,12 @@
       <name val="Ubuntu"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
@@ -537,7 +543,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -682,6 +688,10 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -690,11 +700,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -702,15 +712,15 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -722,283 +732,283 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="36" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="23" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="40" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="43" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1091,7 +1101,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1278,9 +1288,9 @@
       <c r="G16" s="34"/>
       <c r="H16" s="35"/>
       <c r="I16" s="35"/>
-      <c r="K16" s="1" t="n">
-        <f aca="false">$C$10</f>
-        <v>0</v>
+      <c r="K16" s="36" t="str">
+        <f aca="false">IF(B16&lt;&gt;"", $C$10, "")</f>
+        <v/>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1293,9 +1303,9 @@
       <c r="G17" s="34"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
-      <c r="K17" s="1" t="n">
-        <f aca="false">$C$10</f>
-        <v>0</v>
+      <c r="K17" s="36" t="str">
+        <f aca="false">IF(B17&lt;&gt;"", $C$10, "")</f>
+        <v/>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1308,13 +1318,13 @@
       <c r="G18" s="34"/>
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
-      <c r="K18" s="1" t="n">
-        <f aca="false">$C$10</f>
-        <v>0</v>
+      <c r="K18" s="36" t="str">
+        <f aca="false">IF(B18&lt;&gt;"", $C$10, "")</f>
+        <v/>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36"/>
+      <c r="A19" s="37"/>
       <c r="B19" s="32"/>
       <c r="C19" s="33"/>
       <c r="D19" s="32"/>
@@ -1323,13 +1333,13 @@
       <c r="G19" s="34"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="K19" s="1" t="n">
-        <f aca="false">$C$10</f>
-        <v>0</v>
+      <c r="K19" s="36" t="str">
+        <f aca="false">IF(B19&lt;&gt;"", $C$10, "")</f>
+        <v/>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37"/>
+      <c r="A20" s="38"/>
       <c r="B20" s="32"/>
       <c r="C20" s="33"/>
       <c r="D20" s="32"/>
@@ -1338,9 +1348,9 @@
       <c r="G20" s="34"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
-      <c r="K20" s="1" t="n">
-        <f aca="false">$C$10</f>
-        <v>0</v>
+      <c r="K20" s="36" t="str">
+        <f aca="false">IF(B20&lt;&gt;"", $C$10, "")</f>
+        <v/>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1353,9 +1363,9 @@
       <c r="G21" s="34"/>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
-      <c r="K21" s="1" t="n">
-        <f aca="false">$C$10</f>
-        <v>0</v>
+      <c r="K21" s="36" t="str">
+        <f aca="false">IF(B21&lt;&gt;"", $C$10, "")</f>
+        <v/>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1368,9 +1378,9 @@
       <c r="G22" s="34"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
-      <c r="K22" s="1" t="n">
-        <f aca="false">$C$10</f>
-        <v>0</v>
+      <c r="K22" s="36" t="str">
+        <f aca="false">IF(B22&lt;&gt;"", $C$10, "")</f>
+        <v/>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1383,9 +1393,9 @@
       <c r="G23" s="34"/>
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
-      <c r="K23" s="1" t="n">
-        <f aca="false">$C$10</f>
-        <v>0</v>
+      <c r="K23" s="36" t="str">
+        <f aca="false">IF(B23&lt;&gt;"", $C$10, "")</f>
+        <v/>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1398,9 +1408,9 @@
       <c r="G24" s="34"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="K24" s="1" t="n">
-        <f aca="false">$C$10</f>
-        <v>0</v>
+      <c r="K24" s="36" t="str">
+        <f aca="false">IF(B24&lt;&gt;"", $C$10, "")</f>
+        <v/>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1413,23 +1423,23 @@
       <c r="G25" s="34"/>
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
-      <c r="K25" s="1" t="n">
-        <f aca="false">$C$10</f>
-        <v>0</v>
+      <c r="K25" s="36" t="str">
+        <f aca="false">IF(B25&lt;&gt;"", $C$10, "")</f>
+        <v/>
       </c>
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40" t="n">
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41" t="n">
         <f aca="false">SUM(I16:I25)</f>
         <v>0</v>
       </c>
@@ -1440,21 +1450,21 @@
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
       <c r="E27" s="22"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="19"/>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42" t="s">
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="42"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="19"/>
@@ -1467,12 +1477,12 @@
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="19"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1541,446 +1551,446 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="50"/>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="51"/>
+      <c r="B3" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61"/>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="62"/>
+      <c r="B5" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="63"/>
-      <c r="B6" s="60" t="s">
+      <c r="A6" s="64"/>
+      <c r="B6" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
     </row>
     <row r="7" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="63"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="63"/>
-      <c r="B8" s="67" t="s">
+      <c r="A8" s="64"/>
+      <c r="B8" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
     </row>
     <row r="9" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="63"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="63"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
     </row>
     <row r="11" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71" t="s">
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="71"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73" t="s">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74" t="n">
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75" t="n">
         <v>43863</v>
       </c>
-      <c r="G12" s="74"/>
+      <c r="G12" s="75"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
+      <c r="A13" s="73"/>
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="72"/>
-      <c r="B14" s="71" t="s">
+      <c r="A14" s="73"/>
+      <c r="B14" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="71"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="72"/>
-      <c r="B15" s="75" t="s">
+      <c r="A15" s="73"/>
+      <c r="B15" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76" t="s">
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="76"/>
+      <c r="G15" s="77"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="63"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="63"/>
-      <c r="B18" s="79" t="s">
+      <c r="A18" s="64"/>
+      <c r="B18" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D18" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="82" t="s">
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="83" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84" t="n">
+      <c r="A19" s="84"/>
+      <c r="B19" s="85" t="n">
         <v>43863</v>
       </c>
-      <c r="C19" s="85" t="n">
+      <c r="C19" s="86" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="87" t="n">
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="88" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="83"/>
-      <c r="B20" s="88" t="n">
+      <c r="A20" s="84"/>
+      <c r="B20" s="89" t="n">
         <v>43863</v>
       </c>
-      <c r="C20" s="89" t="n">
+      <c r="C20" s="90" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="90" t="s">
+      <c r="D20" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91" t="n">
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="92" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84" t="n">
+      <c r="A21" s="84"/>
+      <c r="B21" s="85" t="n">
         <v>43866</v>
       </c>
-      <c r="C21" s="92" t="n">
+      <c r="C21" s="93" t="n">
         <v>3</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="87" t="n">
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="88" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="93"/>
-      <c r="B22" s="88" t="n">
+      <c r="A22" s="94"/>
+      <c r="B22" s="89" t="n">
         <v>43866</v>
       </c>
-      <c r="C22" s="94" t="n">
+      <c r="C22" s="95" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="90" t="s">
+      <c r="D22" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="95" t="n">
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="96" t="n">
         <v>250</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="96"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="101"/>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="63"/>
-      <c r="B24" s="101"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="103"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="95"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="96"/>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="63"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="104"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101"/>
     </row>
     <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="63"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="95"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="96"/>
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="63"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101"/>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="63"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="105"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="95"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="96"/>
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="107"/>
-      <c r="B29" s="108"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="110" t="n">
+      <c r="A29" s="108"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111" t="n">
         <f aca="false">SUM(G19:G28)</f>
         <v>550</v>
       </c>
-      <c r="G29" s="110"/>
+      <c r="G29" s="111"/>
     </row>
     <row r="30" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="63"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
     </row>
     <row r="31" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="63"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="111"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="112"/>
+      <c r="G31" s="112"/>
     </row>
     <row r="32" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="63"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="112"/>
+      <c r="G32" s="112"/>
     </row>
     <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="63"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
     </row>
     <row r="34" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="63"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
     </row>
     <row r="35" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="63"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="112"/>
+      <c r="G35" s="112"/>
     </row>
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="63"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
+      <c r="A36" s="64"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
     </row>
     <row r="37" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="63"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
+      <c r="A37" s="64"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="67"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
     </row>
     <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="63"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
+      <c r="A38" s="64"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="67"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
     </row>
     <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="63"/>
-      <c r="B39" s="112" t="s">
+      <c r="A39" s="64"/>
+      <c r="B39" s="113" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="112" t="s">
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="114"/>
+      <c r="F39" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="112"/>
+      <c r="G39" s="113"/>
     </row>
     <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="63"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="53"/>
+      <c r="A40" s="64"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
     </row>
     <row r="41" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="63"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="65"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
     </row>
     <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
